--- a/biology/Botanique/Pedicularis_pyrenaica/Pedicularis_pyrenaica.xlsx
+++ b/biology/Botanique/Pedicularis_pyrenaica/Pedicularis_pyrenaica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pedicularis pyrenaica est une plante herbacée vivace de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981)[1] ou des Orobanchaceae selon la classification APG III. Elle est endémique des Pyrénées.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pedicularis pyrenaica est une plante herbacée vivace de la famille des Scrophulariaceae selon la classification classique de Cronquist (1981) ou des Orobanchaceae selon la classification APG III. Elle est endémique des Pyrénées.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante haute de 10 à 25 cm, aux feuilles glabres très découpées, presque toutes en rosette. Les fleurs rose pourpre forment une inflorescence terminale serrée. Floraison de juin à septembre.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Berges des torrents, pâturages, bois humides à une altitude variant de 1 500 à 2 800 m.
 </t>
